--- a/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
+++ b/NEW HR/CESICAR, JOCHELLE JOANNA SOROTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="148">
   <si>
     <t>PERIOD</t>
   </si>
@@ -484,6 +484,12 @@
       </rPr>
       <t>2024</t>
     </r>
+  </si>
+  <si>
+    <t>10/3-4/2023</t>
+  </si>
+  <si>
+    <t>11/6,10/2023</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1437,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K127" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1790,12 +1796,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K124"/>
+  <dimension ref="A2:K127"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A102" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomLeft" activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1966,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.044</v>
+        <v>24.044</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1970,7 +1976,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>0.66700000000000004</v>
+        <v>-1.333</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4246,13 +4252,15 @@
       <c r="B114" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39">
         <v>1</v>
@@ -4270,15 +4278,17 @@
       <c r="B115" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39">
         <v>2</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
@@ -4289,25 +4299,33 @@
       <c r="A116" s="40">
         <v>45200</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
+      <c r="B116" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H116" s="39">
+        <v>2</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="20" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B117" s="20"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
@@ -4316,16 +4334,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="39"/>
+      <c r="H117" s="39">
+        <v>1</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="47">
+        <v>45198</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B118" s="20"/>
+      <c r="A118" s="40"/>
+      <c r="B118" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
       <c r="E118" s="9"/>
@@ -4334,34 +4356,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H118" s="39"/>
+      <c r="H118" s="39">
+        <v>1</v>
+      </c>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="47">
+        <v>45224</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="A119" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H119" s="39">
+        <v>2</v>
+      </c>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="20" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B120" s="20"/>
+      <c r="A120" s="40"/>
+      <c r="B120" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
@@ -4370,14 +4404,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H120" s="39"/>
+      <c r="H120" s="39">
+        <v>1</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4394,8 +4430,8 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>45352</v>
+      <c r="A122" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4412,7 +4448,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>45292</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -4428,20 +4466,72 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="43"/>
+      <c r="A124" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="39"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="15"/>
+      <c r="F124" s="20"/>
       <c r="G124" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H124" s="43"/>
+      <c r="H124" s="39"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="15"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="40"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="39"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="43"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4491,9 +4581,9 @@
   <dimension ref="A2:K187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A106" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A115" activePane="bottomLeft"/>
       <selection activeCell="F106" sqref="F106:G106"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7987,17 +8077,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
